--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wickr/Library/CloudStorage/Dropbox/Uni_research/Projects/2025-04_Autocycler_paper/github_repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1850EE1D-FAED-0F45-899F-1B9AEEB4AEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922B2ADB-D882-6C4D-9379-B10610483476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-13180" yWindow="-28140" windowWidth="43200" windowHeight="25940" xr2:uid="{D9DD36DD-5F44-F44D-B908-890371212E71}"/>
   </bookViews>
@@ -2670,7 +2670,7 @@
     <t>Benchmarking results for all assemblies, generated using the assess_assembly.py script, Inspector and CRAQ. Used to generate Figure 2 and Figure S1.</t>
   </si>
   <si>
-    <t>Wtdbg2</t>
+    <t>wtdbg2</t>
   </si>
 </sst>
 </file>
